--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_4.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_3_4.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1762191.284250449</v>
+        <v>-1764141.51007901</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2264668.837800622</v>
+        <v>2264668.83780062</v>
       </c>
     </row>
     <row r="8">
@@ -656,25 +656,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>331.8493046850821</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>206.1287077409975</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -710,22 +710,22 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>226.9893012813816</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>11.00429467105817</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,16 +862,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>128.4340426649161</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -905,10 +905,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>174.2229194702109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>159.588568161664</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,10 +944,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -956,10 +956,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>91.29290203716405</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,16 +1063,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>146.5840649587251</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1133,19 +1133,19 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>309.3471651991177</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>43.89174305908735</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1199,7 +1199,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,16 +1288,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>41.58915559857827</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>126.6375844284728</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634797</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1388,7 +1388,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1528,22 +1528,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>103.6823614795149</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.1537278750038</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1765,7 +1765,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>197.9208099836032</v>
@@ -1819,13 +1819,13 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>158.4459063413342</v>
+        <v>73.97351314171591</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1847,7 +1847,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206827</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
         <v>381.9303700722618</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1910,7 +1910,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,19 +1999,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>253.1488561805826</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>203.4763044755128</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2099,7 +2099,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051984</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2245,7 +2245,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -2257,7 +2257,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,10 +2290,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>199.9651136829653</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>276.9863416118689</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274071</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014441</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>197.9208099836032</v>
+        <v>122.2856036254975</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>36.5966981165643</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2573,7 +2573,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T26" t="n">
         <v>208.4827883385019</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2713,25 +2713,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E28" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463189</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,7 +2761,7 @@
         <v>41.83246227415211</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7889198539631</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
         <v>153.4156709287486</v>
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E31" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373693</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I31" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3001,7 +3001,7 @@
         <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
-        <v>153.4156709287486</v>
+        <v>153.4156709287493</v>
       </c>
       <c r="U31" t="n">
         <v>218.1054622689367</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T35" t="n">
         <v>208.4827883385019</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463135</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3518,10 +3518,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H38" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I38" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T38" t="n">
         <v>208.4827883385019</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014442</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3658,25 +3658,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I40" t="n">
         <v>42.28735533463134</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3718,16 +3718,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V40" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W40" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X40" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y40" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="41">
@@ -3758,7 +3758,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I41" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T41" t="n">
         <v>208.4827883385019</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,22 +3898,22 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D43" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692852</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I43" t="n">
         <v>42.28735533463133</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898718</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1278.657628994267</v>
+        <v>764.7444956504007</v>
       </c>
       <c r="C2" t="n">
-        <v>1278.657628994267</v>
+        <v>429.5431777866814</v>
       </c>
       <c r="D2" t="n">
-        <v>920.3919303875161</v>
+        <v>429.5431777866814</v>
       </c>
       <c r="E2" t="n">
-        <v>534.603677789272</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="F2" t="n">
-        <v>534.603677789272</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224081</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4358,22 +4358,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2247.308246834948</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U2" t="n">
-        <v>2018.026124328502</v>
+        <v>2212.181128500977</v>
       </c>
       <c r="V2" t="n">
-        <v>2018.026124328502</v>
+        <v>1881.118241157406</v>
       </c>
       <c r="W2" t="n">
-        <v>1665.257469058388</v>
+        <v>1528.349585887292</v>
       </c>
       <c r="X2" t="n">
-        <v>1665.257469058388</v>
+        <v>1154.883827626212</v>
       </c>
       <c r="Y2" t="n">
-        <v>1665.257469058388</v>
+        <v>764.7444956504007</v>
       </c>
     </row>
     <row r="3">
@@ -4410,7 +4410,7 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>222.942782082032</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="C4" t="n">
-        <v>222.942782082032</v>
+        <v>65.05843098304948</v>
       </c>
       <c r="D4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4510,28 +4510,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>579.9823256406182</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T4" t="n">
-        <v>352.67413830922</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U4" t="n">
-        <v>222.942782082032</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V4" t="n">
-        <v>222.942782082032</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W4" t="n">
-        <v>222.942782082032</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X4" t="n">
-        <v>222.942782082032</v>
+        <v>285.8510101265796</v>
       </c>
       <c r="Y4" t="n">
-        <v>222.942782082032</v>
+        <v>65.05843098304948</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1760.906005007191</v>
+        <v>1739.145928656049</v>
       </c>
       <c r="C5" t="n">
-        <v>1391.943488066779</v>
+        <v>1370.183411715637</v>
       </c>
       <c r="D5" t="n">
-        <v>1033.677789460029</v>
+        <v>1011.917713108887</v>
       </c>
       <c r="E5" t="n">
-        <v>647.8895368617846</v>
+        <v>626.1294605106427</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>215.1435557210352</v>
       </c>
       <c r="G5" t="n">
         <v>53.94298182036445</v>
@@ -4565,13 +4565,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4592,25 +4592,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2520.971603332393</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2520.971603332393</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>2147.505845071313</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="Y5" t="n">
-        <v>2147.505845071313</v>
+        <v>2125.745768720171</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,43 +4644,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2231.815593035061</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P6" t="n">
-        <v>2568.06040664989</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>359.2716929833838</v>
+        <v>293.0479818810668</v>
       </c>
       <c r="C7" t="n">
-        <v>359.2716929833838</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="D7" t="n">
-        <v>359.2716929833838</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="E7" t="n">
-        <v>359.2716929833838</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4750,25 +4750,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W7" t="n">
-        <v>580.0642721269139</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X7" t="n">
-        <v>580.0642721269139</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y7" t="n">
-        <v>359.2716929833838</v>
+        <v>293.0479818810668</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1271.984870679801</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="C8" t="n">
-        <v>1271.984870679801</v>
+        <v>1348.190375184708</v>
       </c>
       <c r="D8" t="n">
-        <v>959.5129866402885</v>
+        <v>989.9246765779576</v>
       </c>
       <c r="E8" t="n">
-        <v>959.5129866402885</v>
+        <v>989.9246765779576</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>578.9387717883501</v>
       </c>
       <c r="G8" t="n">
         <v>534.603677789272</v>
@@ -4802,19 +4802,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
@@ -4826,28 +4826,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U8" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="V8" t="n">
-        <v>2388.358616186807</v>
+        <v>2443.387305656314</v>
       </c>
       <c r="W8" t="n">
-        <v>2035.589960916693</v>
+        <v>2090.6186503862</v>
       </c>
       <c r="X8" t="n">
-        <v>1662.124202655613</v>
+        <v>1717.15289212512</v>
       </c>
       <c r="Y8" t="n">
-        <v>1271.984870679801</v>
+        <v>1717.15289212512</v>
       </c>
     </row>
     <row r="9">
@@ -4884,22 +4884,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>141.6087543326021</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="C10" t="n">
-        <v>99.59950625323012</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="D10" t="n">
-        <v>99.59950625323012</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4990,22 +4990,22 @@
         <v>550.5654064942401</v>
       </c>
       <c r="T10" t="n">
-        <v>323.2572191628418</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="U10" t="n">
-        <v>323.2572191628418</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="V10" t="n">
-        <v>323.2572191628418</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="W10" t="n">
-        <v>323.2572191628418</v>
+        <v>550.5654064942401</v>
       </c>
       <c r="X10" t="n">
-        <v>323.2572191628418</v>
+        <v>422.6486545462877</v>
       </c>
       <c r="Y10" t="n">
-        <v>323.2572191628418</v>
+        <v>201.8560754027576</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E11" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G11" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
         <v>1590.888347795206</v>
@@ -5057,7 +5057,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5136,10 +5136,10 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P12" t="n">
-        <v>2317.834075963124</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q12" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286123</v>
       </c>
       <c r="C13" t="n">
-        <v>97.21709146028584</v>
+        <v>496.7497906007054</v>
       </c>
       <c r="D13" t="n">
-        <v>97.21709146028584</v>
+        <v>496.7497906007054</v>
       </c>
       <c r="E13" t="n">
-        <v>97.21709146028584</v>
+        <v>348.8366970183123</v>
       </c>
       <c r="F13" t="n">
-        <v>97.21709146028584</v>
+        <v>201.9467495204019</v>
       </c>
       <c r="G13" t="n">
-        <v>97.21709146028584</v>
+        <v>201.9467495204019</v>
       </c>
       <c r="H13" t="n">
         <v>97.21709146028584</v>
@@ -5200,49 +5200,49 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688062</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799354</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471183</v>
       </c>
       <c r="N13" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585745</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="R13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="S13" t="n">
-        <v>1298.996260473455</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="T13" t="n">
-        <v>1158.436939387592</v>
+        <v>1498.916270557901</v>
       </c>
       <c r="U13" t="n">
-        <v>869.3083006011506</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V13" t="n">
-        <v>614.6238123952637</v>
+        <v>955.1031435655729</v>
       </c>
       <c r="W13" t="n">
-        <v>325.2066423583032</v>
+        <v>665.6859735286123</v>
       </c>
       <c r="X13" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286123</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.21709146028584</v>
+        <v>665.6859735286123</v>
       </c>
     </row>
     <row r="14">
@@ -5255,31 +5255,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805463</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5303,22 +5303,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S14" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T14" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U14" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V14" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W14" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X14" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
         <v>2814.921224614724</v>
@@ -5355,22 +5355,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>498.9056400965593</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>745.6707680030233</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M15" t="n">
-        <v>1514.038914395485</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N15" t="n">
-        <v>1843.901542059518</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O15" t="n">
-        <v>2123.441607278215</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P15" t="n">
         <v>2328.464088060424</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>804.0893717830343</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C16" t="n">
-        <v>804.0893717830343</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D16" t="n">
-        <v>653.9727323706985</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E16" t="n">
-        <v>506.0596387883054</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G16" t="n">
-        <v>359.1696912903951</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H16" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5458,28 +5458,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S16" t="n">
-        <v>1187.92115703528</v>
+        <v>1298.996260473454</v>
       </c>
       <c r="T16" t="n">
-        <v>964.135741824786</v>
+        <v>1075.21084526296</v>
       </c>
       <c r="U16" t="n">
-        <v>804.0893717830343</v>
+        <v>1000.490124917793</v>
       </c>
       <c r="V16" t="n">
-        <v>804.0893717830343</v>
+        <v>1000.490124917793</v>
       </c>
       <c r="W16" t="n">
-        <v>804.0893717830343</v>
+        <v>711.072954880832</v>
       </c>
       <c r="X16" t="n">
-        <v>804.0893717830343</v>
+        <v>711.072954880832</v>
       </c>
       <c r="Y16" t="n">
-        <v>804.0893717830343</v>
+        <v>711.072954880832</v>
       </c>
     </row>
     <row r="17">
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
         <v>2059.358867610191</v>
@@ -5507,19 +5507,19 @@
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M17" t="n">
         <v>2388.164701515097</v>
@@ -5540,25 +5540,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T17" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5592,22 +5592,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K18" t="n">
-        <v>410.8745301331628</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L18" t="n">
-        <v>1024.771599890051</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M18" t="n">
-        <v>1332.091733170013</v>
+        <v>1689.561836756086</v>
       </c>
       <c r="N18" t="n">
-        <v>1661.954360834046</v>
+        <v>2019.424464420119</v>
       </c>
       <c r="O18" t="n">
-        <v>2331.418122136705</v>
+        <v>2298.964529638815</v>
       </c>
       <c r="P18" t="n">
         <v>2536.440602918915</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>247.3337308726216</v>
+        <v>822.6075462588844</v>
       </c>
       <c r="C19" t="n">
-        <v>247.3337308726216</v>
+        <v>653.6713633309776</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>503.5547239186418</v>
       </c>
       <c r="E19" t="n">
-        <v>97.21709146028584</v>
+        <v>355.6416303362487</v>
       </c>
       <c r="F19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5674,19 +5674,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M19" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O19" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P19" t="n">
         <v>1460.082827585746</v>
@@ -5701,22 +5701,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U19" t="n">
-        <v>1019.424940013486</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V19" t="n">
-        <v>764.7404518075996</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="W19" t="n">
-        <v>475.3232817706389</v>
+        <v>1004.256011089124</v>
       </c>
       <c r="X19" t="n">
-        <v>247.3337308726216</v>
+        <v>1004.256011089124</v>
       </c>
       <c r="Y19" t="n">
-        <v>247.3337308726216</v>
+        <v>1004.256011089124</v>
       </c>
     </row>
     <row r="20">
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
         <v>2059.358867610191</v>
@@ -5735,28 +5735,28 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F20" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805466</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H20" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514088</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
@@ -5771,7 +5771,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5786,16 +5786,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="21">
@@ -5829,13 +5829,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126482</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571609</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636249</v>
+        <v>921.1936903636247</v>
       </c>
       <c r="M21" t="n">
         <v>1228.513823643586</v>
@@ -5847,7 +5847,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2358.217138262063</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>524.8400981009108</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="C22" t="n">
-        <v>524.8400981009108</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="D22" t="n">
-        <v>524.8400981009108</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>376.9270045185177</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
         <v>97.21709146028584</v>
@@ -5911,19 +5911,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O22" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P22" t="n">
         <v>1460.082827585746</v>
@@ -5938,22 +5938,22 @@
         <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1296.931307241776</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>1296.931307241776</v>
+        <v>1219.13208711157</v>
       </c>
       <c r="V22" t="n">
-        <v>1042.246819035889</v>
+        <v>964.447598905683</v>
       </c>
       <c r="W22" t="n">
-        <v>752.8296489989282</v>
+        <v>675.0304288687223</v>
       </c>
       <c r="X22" t="n">
-        <v>524.8400981009108</v>
+        <v>447.040877970705</v>
       </c>
       <c r="Y22" t="n">
-        <v>524.8400981009108</v>
+        <v>447.040877970705</v>
       </c>
     </row>
     <row r="23">
@@ -5978,34 +5978,34 @@
         <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823791</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514094</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
@@ -6066,25 +6066,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.428562457161</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636251</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643587</v>
+        <v>1247.466478653857</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.37645130762</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526317</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
         <v>2623.573505376138</v>
@@ -6121,16 +6121,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>266.1532743881928</v>
+        <v>711.072954880832</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028584</v>
+        <v>542.1367719529251</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028584</v>
+        <v>392.0201325405893</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028584</v>
+        <v>244.1070389581962</v>
       </c>
       <c r="F25" t="n">
         <v>97.21709146028584</v>
@@ -6148,10 +6148,10 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688073</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799366</v>
       </c>
       <c r="M25" t="n">
         <v>779.0639759471194</v>
@@ -6172,25 +6172,25 @@
         <v>1498.916270557903</v>
       </c>
       <c r="S25" t="n">
-        <v>1298.996260473455</v>
+        <v>1375.395458814976</v>
       </c>
       <c r="T25" t="n">
-        <v>1075.210845262961</v>
+        <v>1375.395458814976</v>
       </c>
       <c r="U25" t="n">
-        <v>1038.244483529058</v>
+        <v>1375.395458814976</v>
       </c>
       <c r="V25" t="n">
-        <v>783.5599953231707</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="W25" t="n">
-        <v>494.1428252862101</v>
+        <v>1120.710970609089</v>
       </c>
       <c r="X25" t="n">
-        <v>266.1532743881928</v>
+        <v>892.7214197110717</v>
       </c>
       <c r="Y25" t="n">
-        <v>266.1532743881928</v>
+        <v>892.7214197110717</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H26" t="n">
         <v>179.8222783822463</v>
@@ -6224,19 +6224,19 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514074</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
-        <v>2388.164701515096</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619126</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899126</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6257,16 +6257,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6291,13 +6291,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F27" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G27" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H27" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
         <v>97.21709146028584</v>
@@ -6306,19 +6306,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M27" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N27" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O27" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P27" t="n">
         <v>2328.464088060424</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506724</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083204</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982979</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6403,7 +6403,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q28" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R28" t="n">
         <v>1996.265827986523</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045206</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010316</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="29">
@@ -6440,31 +6440,31 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C29" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D29" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795207</v>
@@ -6473,13 +6473,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q29" t="n">
         <v>4801.627437207829</v>
@@ -6494,16 +6494,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U29" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W29" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y29" t="n">
         <v>2814.921224614724</v>
@@ -6528,13 +6528,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G30" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H30" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
         <v>97.21709146028584</v>
@@ -6543,19 +6543,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K30" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P30" t="n">
         <v>2328.464088060424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229675</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G31" t="n">
         <v>221.5295092103129</v>
@@ -6616,13 +6616,13 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L31" t="n">
         <v>709.8489468649693</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6652,19 +6652,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U31" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V31" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W31" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="32">
@@ -6677,49 +6677,49 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G32" t="n">
         <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I32" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6731,16 +6731,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y32" t="n">
         <v>2814.921224614724</v>
@@ -6765,13 +6765,13 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G33" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
         <v>97.21709146028584</v>
@@ -6780,19 +6780,19 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P33" t="n">
         <v>2328.464088060424</v>
@@ -6835,25 +6835,25 @@
         <v>659.4602391108332</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J34" t="n">
         <v>177.05035515254</v>
@@ -6871,7 +6871,7 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P34" t="n">
         <v>1932.236826184156</v>
@@ -6883,7 +6883,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
         <v>1710.200584771663</v>
@@ -6898,7 +6898,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045212</v>
       </c>
       <c r="Y34" t="n">
         <v>772.2886129010318</v>
@@ -6932,16 +6932,16 @@
         <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515097</v>
@@ -6959,28 +6959,28 @@
         <v>4801.62743720783</v>
       </c>
       <c r="R35" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7011,28 +7011,28 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I36" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J36" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>287.7778528277034</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L36" t="n">
-        <v>901.6749225845922</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M36" t="n">
-        <v>1208.995055864554</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N36" t="n">
-        <v>1538.857683528587</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O36" t="n">
-        <v>2016.139981183167</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P36" t="n">
-        <v>2536.440602918915</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q36" t="n">
         <v>2623.573505376138</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229673</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504509</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103126</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254957</v>
       </c>
       <c r="L37" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M37" t="n">
         <v>1048.866260860496</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7148,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155895</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I38" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823789</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514086</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
         <v>1590.888347795206</v>
@@ -7184,40 +7184,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7251,22 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J39" t="n">
-        <v>263.5382936126483</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K39" t="n">
-        <v>674.428562457161</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L39" t="n">
-        <v>921.1936903636251</v>
+        <v>921.1936903636249</v>
       </c>
       <c r="M39" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N39" t="n">
-        <v>1558.37645130762</v>
+        <v>1558.376451307619</v>
       </c>
       <c r="O39" t="n">
-        <v>1837.916516526317</v>
+        <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
         <v>2328.464088060424</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229674</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083208</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G40" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982975</v>
       </c>
       <c r="I40" t="n">
         <v>97.21709146028587</v>
@@ -7336,7 +7336,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7357,7 +7357,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T40" t="n">
         <v>1710.200584771663</v>
@@ -7372,7 +7372,7 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y40" t="n">
         <v>772.2886129010319</v>
@@ -7385,22 +7385,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C41" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D41" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805469</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822463</v>
@@ -7409,13 +7409,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J41" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
         <v>2388.164701515098</v>
@@ -7436,25 +7436,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V41" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W41" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X41" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y41" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="42">
@@ -7497,7 +7497,7 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1228.513823643586</v>
       </c>
       <c r="N42" t="n">
         <v>1558.376451307619</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504513</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7567,13 +7567,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J43" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7609,10 +7609,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="44">
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108332</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103123</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,31 +7804,31 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254951</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N46" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O46" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P46" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q46" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
         <v>1865.165908942116</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
   </sheetData>
@@ -8058,10 +8058,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>145.029416914201</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050816</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>264.4652370125786</v>
@@ -8313,7 +8313,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>166.6588033951781</v>
+        <v>90.64146763747169</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8784,13 +8784,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>277.6717966208067</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>437.3469244119848</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -9006,13 +9006,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>87.16935584025379</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,13 +9021,13 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>288.4091825776759</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928334</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9185,7 +9185,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,31 +9240,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>124.3400780863228</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>32.78140656352554</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445217</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9495,13 +9495,13 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>180.0237016735881</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.7842838544522</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9714,31 +9714,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>409.7003683229574</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>288.4091825776749</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9881,7 +9881,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928307</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
         <v>437.3469244119842</v>
@@ -9969,13 +9969,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q27" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10130,7 +10130,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.314990659903</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>65.71641987298243</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R30" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10364,7 +10364,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714807</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>212.3149906599047</v>
@@ -10443,13 +10443,13 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928316</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10662,13 +10662,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -10677,16 +10677,16 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>199.7396287231148</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>318.4627686399372</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>65.71641987298386</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,13 +10917,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>288.4091825776749</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q39" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
-        <v>34.78428385445216</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928336</v>
       </c>
       <c r="N41" t="n">
         <v>437.3469244119842</v>
@@ -11154,13 +11154,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>288.4091825776752</v>
+        <v>288.4091825776754</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R42" t="n">
-        <v>34.78428385445217</v>
+        <v>34.78428385445218</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -22553,13 +22553,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>175.8016623312643</v>
       </c>
       <c r="F2" t="n">
-        <v>216.9064133551386</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>13.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22601,10 +22601,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>24.23486622690771</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -23416,22 +23416,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>166.4935684633776</v>
       </c>
       <c r="H13" t="n">
-        <v>148.9138283675361</v>
+        <v>45.2314668880212</v>
       </c>
       <c r="I13" t="n">
         <v>110.419245464272</v>
@@ -23464,10 +23464,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>82.39383318338548</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23653,7 +23653,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>127.7914460572431</v>
+        <v>212.2638392568614</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23887,19 +23887,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>166.4935684633776</v>
@@ -23908,7 +23908,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,19 +23941,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
-        <v>33.08849621799479</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>83.04669386107815</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -24133,7 +24133,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -24145,7 +24145,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,10 +24178,10 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>21.58244737542392</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>9.251010786708434</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.4935684633776</v>
@@ -24412,19 +24412,19 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>75.63520635810578</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U25" t="n">
-        <v>249.640654282013</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24619,7 +24619,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>-5.968558980384842e-13</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24889,7 +24889,7 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>-7.389644451905042e-13</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1311782.711030735</v>
+        <v>1311782.711030734</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1311782.711030735</v>
+        <v>1311782.711030734</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1311782.711030735</v>
+        <v>1311782.711030734</v>
       </c>
     </row>
     <row r="9">
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77466.06243016743</v>
+        <v>77466.06243016745</v>
       </c>
       <c r="C2" t="n">
-        <v>82104.17698642836</v>
+        <v>82104.17698642831</v>
       </c>
       <c r="D2" t="n">
+        <v>82104.17698642831</v>
+      </c>
+      <c r="E2" t="n">
+        <v>78205.81194754173</v>
+      </c>
+      <c r="F2" t="n">
+        <v>78205.81194754181</v>
+      </c>
+      <c r="G2" t="n">
+        <v>78205.81194754172</v>
+      </c>
+      <c r="H2" t="n">
+        <v>78205.81194754172</v>
+      </c>
+      <c r="I2" t="n">
+        <v>78205.81194754175</v>
+      </c>
+      <c r="J2" t="n">
+        <v>82104.17698642846</v>
+      </c>
+      <c r="K2" t="n">
+        <v>82104.17698642846</v>
+      </c>
+      <c r="L2" t="n">
+        <v>82104.17698642834</v>
+      </c>
+      <c r="M2" t="n">
         <v>82104.1769864283</v>
       </c>
-      <c r="E2" t="n">
-        <v>78205.81194754179</v>
-      </c>
-      <c r="F2" t="n">
-        <v>78205.81194754178</v>
-      </c>
-      <c r="G2" t="n">
-        <v>78205.81194754175</v>
-      </c>
-      <c r="H2" t="n">
-        <v>78205.81194754176</v>
-      </c>
-      <c r="I2" t="n">
-        <v>78205.81194754176</v>
-      </c>
-      <c r="J2" t="n">
-        <v>82104.17698642849</v>
-      </c>
-      <c r="K2" t="n">
-        <v>82104.17698642839</v>
-      </c>
-      <c r="L2" t="n">
-        <v>82104.1769864284</v>
-      </c>
-      <c r="M2" t="n">
-        <v>82104.17698642831</v>
-      </c>
       <c r="N2" t="n">
-        <v>82104.17698642827</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="O2" t="n">
-        <v>82104.17698642837</v>
+        <v>82104.17698642834</v>
       </c>
       <c r="P2" t="n">
         <v>82104.17698642837</v>
@@ -26381,7 +26381,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.410605131648481e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26424,37 +26424,37 @@
         <v>165632.8677865244</v>
       </c>
       <c r="E4" t="n">
-        <v>22174.60758687075</v>
+        <v>22174.60758687071</v>
       </c>
       <c r="F4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687072</v>
       </c>
       <c r="G4" t="n">
-        <v>22174.60758687072</v>
+        <v>22174.60758687078</v>
       </c>
       <c r="H4" t="n">
-        <v>22174.60758687071</v>
+        <v>22174.60758687073</v>
       </c>
       <c r="I4" t="n">
         <v>22174.60758687071</v>
       </c>
       <c r="J4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="K4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="L4" t="n">
-        <v>44593.39482819117</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="M4" t="n">
-        <v>44593.39482819114</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="N4" t="n">
-        <v>44593.39482819115</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="O4" t="n">
-        <v>44593.39482819119</v>
+        <v>44593.3948281912</v>
       </c>
       <c r="P4" t="n">
         <v>44593.39482819119</v>
@@ -26479,13 +26479,13 @@
         <v>91987.32594871662</v>
       </c>
       <c r="F5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="G5" t="n">
-        <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>91987.32594871664</v>
@@ -26500,7 +26500,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="N5" t="n">
         <v>97715.1058200254</v>
@@ -26509,7 +26509,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-734520.9318200384</v>
+        <v>-734636.8846839449</v>
       </c>
       <c r="C6" t="n">
-        <v>-166387.7688635055</v>
+        <v>-166387.7688635056</v>
       </c>
       <c r="D6" t="n">
         <v>-166387.7688635056</v>
       </c>
       <c r="E6" t="n">
-        <v>-561116.1580649418</v>
+        <v>-561213.6171909139</v>
       </c>
       <c r="F6" t="n">
-        <v>-35956.12158804557</v>
+        <v>-36053.58071401769</v>
       </c>
       <c r="G6" t="n">
-        <v>-35956.12158804561</v>
+        <v>-36053.58071401785</v>
       </c>
       <c r="H6" t="n">
-        <v>-35956.12158804557</v>
+        <v>-36053.58071401784</v>
       </c>
       <c r="I6" t="n">
-        <v>-35956.12158804559</v>
+        <v>-36053.58071401776</v>
       </c>
       <c r="J6" t="n">
         <v>-291133.0549580936</v>
       </c>
       <c r="K6" t="n">
-        <v>-60204.32366178819</v>
+        <v>-60204.32366178813</v>
       </c>
       <c r="L6" t="n">
-        <v>-60204.32366178813</v>
+        <v>-60204.32366178825</v>
       </c>
       <c r="M6" t="n">
         <v>-195005.3388956254</v>
       </c>
       <c r="N6" t="n">
-        <v>-60204.32366178829</v>
+        <v>-60204.32366178826</v>
       </c>
       <c r="O6" t="n">
         <v>-114709.8357655008</v>
       </c>
       <c r="P6" t="n">
-        <v>-60204.32366178821</v>
+        <v>-60204.32366178819</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="J2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964069</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
       </c>
-      <c r="K2" t="n">
-        <v>68.13189012964067</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="P2" t="n">
         <v>68.13189012964064</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964064</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964065</v>
-      </c>
-      <c r="P2" t="n">
-        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="3">
@@ -26747,34 +26747,34 @@
         <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="H3" t="n">
+        <v>830.3824054541001</v>
+      </c>
+      <c r="I3" t="n">
+        <v>830.3824054541005</v>
+      </c>
+      <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
-      <c r="I3" t="n">
-        <v>830.3824054541004</v>
-      </c>
-      <c r="J3" t="n">
-        <v>830.3824054541004</v>
-      </c>
       <c r="K3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541004</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="P3" t="n">
         <v>830.3824054541002</v>
@@ -26923,28 +26923,28 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>68.13189012964065</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964067</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990177</v>
+        <v>540.9263704990175</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27376,25 +27376,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>33.42358708592542</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>189.9696323865728</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27430,7 +27430,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>137.6111783471542</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27582,16 +27582,16 @@
         <v>29.12274995491431</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>157.8478315770617</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27600,10 +27600,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27625,10 +27625,10 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>232.6531262715006</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>254.195601859131</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,13 +27661,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
@@ -27676,10 +27676,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>75.95391906146378</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,13 +27816,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>139.9389333778659</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27853,19 +27853,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>45.33587642156527</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>369.8924269617077</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
         <v>174.4157128089715</v>
@@ -27919,7 +27919,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28008,16 +28008,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>125.6576655000496</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28074,10 +28074,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>99.0720709605643</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28108,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28567,7 +28567,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -28630,7 +28630,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="18">
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -29983,7 +29983,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31592,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I14" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,34 +32066,34 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
         <v>227.9948068710956</v>
@@ -32102,10 +32102,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S15" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32166,10 +32166,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N16" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32178,16 +32178,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K17" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L17" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O17" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q17" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R17" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U17" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,34 +32303,34 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I18" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q18" t="n">
         <v>227.9948068710956</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32388,7 +32388,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I19" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J19" t="n">
         <v>105.8669502822383</v>
@@ -32403,10 +32403,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P19" t="n">
         <v>181.1050413469073</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32470,40 +32470,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K20" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L20" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M20" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N20" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O20" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q20" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R20" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U20" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32543,10 +32543,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H21" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I21" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J21" t="n">
         <v>168.7478056215733</v>
@@ -32555,7 +32555,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358984</v>
       </c>
       <c r="M21" t="n">
         <v>452.5584109724845</v>
@@ -32564,10 +32564,10 @@
         <v>464.5362854813461</v>
       </c>
       <c r="O21" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855525</v>
       </c>
       <c r="P21" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q21" t="n">
         <v>227.9948068710956</v>
@@ -32579,7 +32579,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32625,7 +32625,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I22" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J22" t="n">
         <v>105.8669502822383</v>
@@ -32643,7 +32643,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O22" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P22" t="n">
         <v>181.1050413469073</v>
@@ -32655,10 +32655,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S22" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U22" t="n">
         <v>0.08167695791351813</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443618</v>
       </c>
       <c r="H23" t="n">
         <v>34.18755300444946</v>
@@ -32719,13 +32719,13 @@
         <v>586.162349956552</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927188</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540888</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946994</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647497</v>
@@ -32740,7 +32740,7 @@
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354894</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32795,7 +32795,7 @@
         <v>387.8120847358986</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724848</v>
       </c>
       <c r="N24" t="n">
         <v>464.5362854813463</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361492</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,10 +32856,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081164</v>
+        <v>1.497410895081165</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990345</v>
+        <v>13.31334413990346</v>
       </c>
       <c r="I25" t="n">
         <v>45.03122946298631</v>
@@ -32868,10 +32868,10 @@
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557935</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196125</v>
       </c>
       <c r="M25" t="n">
         <v>234.725964217132</v>
@@ -32880,7 +32880,7 @@
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065633</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32892,13 +32892,13 @@
         <v>67.32903897337671</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336901</v>
+        <v>26.09578805336902</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892248</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351817</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H26" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I26" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
@@ -33014,46 +33014,46 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L27" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R27" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S27" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33111,10 +33111,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M28" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N28" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
         <v>211.6522236065632</v>
@@ -33123,19 +33123,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R28" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R29" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,46 +33251,46 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L30" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N30" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P30" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q30" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,7 +33336,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
@@ -33348,10 +33348,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M31" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33360,19 +33360,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K32" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q32" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R32" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,46 +33488,46 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K33" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P33" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T33" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,7 +33573,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
@@ -33585,10 +33585,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M34" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33597,19 +33597,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I35" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K35" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M35" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P35" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q35" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R35" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S35" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T35" t="n">
         <v>14.61306122562944</v>
@@ -33725,46 +33725,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H36" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J36" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K36" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L36" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N36" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P36" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q36" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T36" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,7 +33810,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
@@ -33822,10 +33822,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M37" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N37" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O37" t="n">
         <v>211.6522236065632</v>
@@ -33834,19 +33834,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S37" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I38" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K38" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M38" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927187</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540887</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P38" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q38" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R38" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S38" t="n">
-        <v>76.06970478104651</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T38" t="n">
         <v>14.61306122562944</v>
@@ -33962,46 +33962,46 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H39" t="n">
         <v>17.25001940386726</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J39" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K39" t="n">
-        <v>288.4168775622983</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L39" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>452.5584109724847</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813463</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855527</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P39" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q39" t="n">
-        <v>227.9948068710957</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
         <v>110.8952201095118</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T39" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,7 +34047,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
@@ -34059,10 +34059,10 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M40" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N40" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O40" t="n">
         <v>211.6522236065632</v>
@@ -34071,19 +34071,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337671</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S40" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892247</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351816</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,16 +34120,16 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I41" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J41" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K41" t="n">
         <v>424.6341946041488</v>
@@ -34138,7 +34138,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N41" t="n">
         <v>595.6470695927186</v>
@@ -34147,7 +34147,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P41" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q41" t="n">
         <v>360.4902833647496</v>
@@ -34156,7 +34156,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S41" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T41" t="n">
         <v>14.61306122562944</v>
@@ -34199,7 +34199,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H42" t="n">
         <v>17.25001940386726</v>
@@ -34208,7 +34208,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J42" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K42" t="n">
         <v>288.4168775622982</v>
@@ -34217,10 +34217,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M42" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O42" t="n">
         <v>424.9599466855526</v>
@@ -34235,10 +34235,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T42" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34299,7 +34299,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N43" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O43" t="n">
         <v>211.6522236065632</v>
@@ -34311,16 +34311,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S43" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>76.01733575770689</v>
       </c>
       <c r="K3" t="n">
-        <v>138.3897561047522</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730081</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35027,13 +35027,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>130.3926104730631</v>
+        <v>54.37527471535667</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35252,7 +35252,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35264,13 +35264,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35504,13 +35504,13 @@
         <v>282.3637022411081</v>
       </c>
       <c r="P12" t="n">
-        <v>484.7652115523313</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35568,7 +35568,7 @@
         <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299096</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081124</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>237.744794428193</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M15" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P15" t="n">
-        <v>207.0934149315247</v>
+        <v>495.5025975092005</v>
       </c>
       <c r="Q15" t="n">
         <v>298.0903205209232</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O16" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L17" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221125</v>
       </c>
       <c r="N17" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O17" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P17" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q17" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349766</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K18" t="n">
-        <v>274.915516674262</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
-        <v>620.0980502594834</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504663</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P18" t="n">
-        <v>207.0934149315247</v>
+        <v>239.8748214950501</v>
       </c>
       <c r="Q18" t="n">
-        <v>88.01303278507413</v>
+        <v>88.01303278507407</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
       </c>
       <c r="M19" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N19" t="n">
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36118,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L20" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M20" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N20" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O20" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P20" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q20" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,22 +36203,22 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560242</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504661</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980127</v>
       </c>
       <c r="O21" t="n">
         <v>282.3637022411081</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>268.0367344586621</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K22" t="n">
         <v>151.7024285299105</v>
@@ -36285,7 +36285,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M22" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N22" t="n">
         <v>273.2768778056036</v>
@@ -36297,7 +36297,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415079</v>
+        <v>271.378021941508</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
@@ -36367,19 +36367,19 @@
         <v>805.3296502221118</v>
       </c>
       <c r="N23" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081121</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951474</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109126</v>
       </c>
       <c r="Q23" t="n">
         <v>350.4995841502049</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349816</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490674</v>
       </c>
       <c r="K24" t="n">
-        <v>415.0406756005179</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L24" t="n">
         <v>249.2577049560244</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504664</v>
+        <v>720.1247453734238</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411083</v>
       </c>
       <c r="P24" t="n">
-        <v>495.5025975091996</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507419</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556555</v>
+        <v>12.50777016556556</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299106</v>
@@ -36522,7 +36522,7 @@
         <v>250.2141868799286</v>
       </c>
       <c r="M25" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789726</v>
       </c>
       <c r="N25" t="n">
         <v>273.2768778056037</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187477</v>
+        <v>39.22569997187479</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,28 +36595,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
-        <v>805.32965022211</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,22 +36674,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M27" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N27" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P27" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q27" t="n">
         <v>298.0903205209232</v>
@@ -36765,7 +36765,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O28" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P28" t="n">
         <v>246.5154907414415</v>
@@ -36832,28 +36832,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q29" t="n">
-        <v>350.4995841502032</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N30" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O30" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P30" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q30" t="n">
         <v>298.0903205209232</v>
@@ -37002,7 +37002,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
         <v>246.5154907414415</v>
@@ -37069,28 +37069,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N32" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109105</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q32" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,22 +37148,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M33" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O33" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P33" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37239,7 +37239,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P34" t="n">
         <v>246.5154907414415</v>
@@ -37306,28 +37306,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K35" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221109</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349813</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>41.91017895490671</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>150.5754385879393</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L36" t="n">
-        <v>620.0980502594836</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M36" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O36" t="n">
-        <v>482.1033309642231</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714619</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q36" t="n">
-        <v>88.01303278507416</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37473,10 +37473,10 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N37" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37543,28 +37543,28 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K38" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N38" t="n">
-        <v>803.580930408112</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951473</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109124</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q38" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349813</v>
+        <v>59.8253897034995</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,22 +37622,22 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K39" t="n">
-        <v>415.0406756005179</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L39" t="n">
-        <v>249.2577049560244</v>
+        <v>249.2577049560243</v>
       </c>
       <c r="M39" t="n">
-        <v>310.4243770504664</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N39" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O39" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P39" t="n">
-        <v>495.5025975091996</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q39" t="n">
         <v>298.0903205209232</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37710,13 +37710,13 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O40" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q40" t="n">
         <v>107.3575901015154</v>
@@ -37780,13 +37780,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L41" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221127</v>
       </c>
       <c r="N41" t="n">
         <v>803.5809304081118</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,16 +37865,16 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504662</v>
       </c>
       <c r="N42" t="n">
-        <v>333.1945733980129</v>
+        <v>333.1945733980128</v>
       </c>
       <c r="O42" t="n">
-        <v>282.3637022411082</v>
+        <v>282.3637022411081</v>
       </c>
       <c r="P42" t="n">
-        <v>495.5025975091999</v>
+        <v>495.5025975092001</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -37950,7 +37950,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P43" t="n">
         <v>246.5154907414414</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
